--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -528,34 +528,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H2">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6002208709047701</v>
+        <v>0.8383893333333333</v>
       </c>
       <c r="N2">
-        <v>0.6002208709047701</v>
+        <v>2.515168</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>104.267618597437</v>
+        <v>154.3161965195662</v>
       </c>
       <c r="R2">
-        <v>104.267618597437</v>
+        <v>1388.845768676096</v>
       </c>
       <c r="S2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="T2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H3">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I3">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J3">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6002208709047701</v>
+        <v>0.8383893333333333</v>
       </c>
       <c r="N3">
-        <v>0.6002208709047701</v>
+        <v>2.515168</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>34.17935097392494</v>
+        <v>48.1599338304</v>
       </c>
       <c r="R3">
-        <v>34.17935097392494</v>
+        <v>433.4394044736</v>
       </c>
       <c r="S3">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="T3">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.2052878900969</v>
+        <v>41.21033366666666</v>
       </c>
       <c r="H4">
-        <v>40.2052878900969</v>
+        <v>123.631001</v>
       </c>
       <c r="I4">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="J4">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6002208709047701</v>
+        <v>0.8383893333333333</v>
       </c>
       <c r="N4">
-        <v>0.6002208709047701</v>
+        <v>2.515168</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>24.13205291237097</v>
+        <v>34.55030416924089</v>
       </c>
       <c r="R4">
-        <v>24.13205291237097</v>
+        <v>310.952737523168</v>
       </c>
       <c r="S4">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
       <c r="T4">
-        <v>0.1484327593050052</v>
+        <v>0.1457656157184491</v>
       </c>
     </row>
   </sheetData>
